--- a/biology/Botanique/Navette_d'hiver/Navette_d'hiver.xlsx
+++ b/biology/Botanique/Navette_d'hiver/Navette_d'hiver.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Navette_d%27hiver</t>
+          <t>Navette_d'hiver</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brassica rapa 'subsp.' oleifera '('DC.')' Metzg. forma biennis
 La navette d'hiver (Brassica rapa subsp. oleifera forma biennis) est une variété de plante herbacée annuelle de la famille des Brassicaceae. C'est une des deux variétés de la navette.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Navette_d%27hiver</t>
+          <t>Navette_d'hiver</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Référence GRIN : espèce Brassica rapa L. subsp. oleifera (DC.) Metzg. forma biennis (Metzg.) Thell.
  Portail des plantes utiles                     </t>
